--- a/data/questions-data-test.xlsx
+++ b/data/questions-data-test.xlsx
@@ -12,6 +12,7 @@
     <sheet name="BMC AN GIANG" sheetId="3" r:id="rId3"/>
     <sheet name="MY" sheetId="4" r:id="rId4"/>
     <sheet name="KIM ANH" sheetId="5" r:id="rId5"/>
+    <sheet name="SANG" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
   <si>
     <t>name</t>
   </si>
@@ -179,9 +180,6 @@
   </si>
   <si>
     <t>SANG</t>
-  </si>
-  <si>
-    <t>Thuốc cỏ Modusa có dùng trừ cỏ bồn bồn trên Cà rốt được không? ̣ Khách Hải Dương hỏi</t>
   </si>
   <si>
     <t xml:space="preserve">Cách bảo quản sản phẩm cỏ Misung, Azin Rio  để không bị lắng cặn </t>
@@ -752,43 +750,10 @@
     <t>2025-12-17 18:20:49,RAG,Liều lượng và cách sử dụng khuyến cáo của sản phẩm Forsan?</t>
   </si>
   <si>
-    <t>Không có tài liệu đủ độ tương đồng.
-Gợi ý:
-- Forsan 60EC có những lưu ý quan trọng nào khi sử dụng? (score=0.54)
-- Forsan 60EC là thuốc bảo vệ thực vật có đặc điểm và công dụng gì? (score=0.61)
-- Forsan 60EC được đóng gói như thế nào và bán ở đâu? (score=0.58)
-- Forsan 60EC có tác dụng gì ngoài diệt sâu? (score=0.48)
-- Forgon 40EC được đóng gói như thế nào và liều lượng sử dụng ra sao? (score=0.46)
-- Sản phẩm Forzate 20EW là thuốc bảo vệ thực vật có thành phần và công dụng như thế nào? (score=0.46)
-- Sản phẩm Forgon 40EC (Dime58) có thành phần và công dụng chính là gì? (score=0.45)
-- Liều lượng và cách dùng Binhfos 50EC như thế nào? (score=0.45)
-- Sản phẩm Forcin 50EC (JAPASA 50EC) có thành phần và công dụng chính là gì? (score=0.45)
-- Forsan 60EC dùng để phòng trừ sâu bệnh trên những cây trồng nào và sâu bệnh cụ thể là gì? (score=0.45)</t>
-  </si>
-  <si>
     <t>2025-12-17 18:21:05,RAG,Các sản phẩm sử dụng cho lúa giai đoạn tiền nảy mầm?</t>
   </si>
   <si>
-    <t>Trong giai đoạn tiền nảy mầm của cây lúa, có một số sản phẩm được sử dụng để kiểm soát cỏ dại, trong đó nổi bật là Riceup 300EC và Many 800WP.
-1. **Riceup 300EC**:
-   - **Đặc tính và cơ chế**: Riceup 300EC là thuốc trừ cỏ được sử dụng để kiểm soát các loại cỏ như cỏ đuôi phụng, cỏ lồng vực, cỏ chỉ, cỏ cháo, và cỏ cú trên ruộng lúa. Sản phẩm này đặc biệt hiệu quả trong giai đoạn tiền nảy mầm từ 1-4 ngày sau khi sạ.
-   - **Phạm vi tác động**: Riceup 300EC hoạt động tốt nhất khi lúa đã ủ nảy mầm và có đủ rễ. Trước khi phun, ruộng cần được chuẩn bị kỹ lưỡng, bao gồm cày bừa, trục sạch cỏ vụ trước, và san phẳng mặt ruộng.
-   - **Lưu ý khi sử dụng**: Phun thuốc bằng béc phun sương để đảm bảo phủ đều mặt ruộng. Sau khi phun 2-3 ngày, cần cho nước vào ruộng, tránh để nước ngập ngọn mạ và duy trì độ ẩm từ 5-10 ngày. Không để đất ruộng bị khô hay nứt nẻ.
-2. **Many 800WP**:
-   - **Đặc tính và cơ chế**: Many 800WP có thể được sử dụng trước khi cỏ mọc (tiền nảy mầm) hoặc khi cỏ đã mọc nhưng còn nhỏ (hậu nảy mầm sớm). Trên ngô (bắp), sản phẩm này được phun ngay sau khi tỉa hạt, khi cỏ chưa mọc hoặc mới mọc 1-2 lá.
-   - **Phạm vi tác động**: Sản phẩm này thích hợp cho việc kiểm soát cỏ dại trong giai đoạn đầu của sự phát triển cây trồng, giúp ngăn chặn sự cạnh tranh từ cỏ dại.
-Cả hai sản phẩm đều yêu cầu tuân thủ hướng dẫn sử dụng cụ thể trên bao bì để đạt hiệu quả tối ưu.</t>
-  </si>
-  <si>
     <t>2025-12-17 18:21:30,RAG,Sản phẩm nào kích ra hoa cho cây khóm?</t>
-  </si>
-  <si>
-    <t>Trong ngữ cảnh hiện tại, không có thông tin cụ thể về sản phẩm nào được sử dụng để kích thích ra hoa cho cây khóm (dứa). Tuy nhiên, nếu bạn quan tâm đến sản phẩm Atomin 15WP, đây là một sản phẩm chứa hoạt chất Paclobutrazol 15% w/w, được sử dụng chủ yếu để điều hòa sinh trưởng cây trồng. Atomin 15WP có công dụng kích thích ra hoa trái vụ cho các cây ăn trái như xoài và sầu riêng, hạn chế sượng trái, khô bông và rụng trái non, cũng như giúp cây lúa và bắp chống đổ ngã và phục hồi nhanh chóng.
-Nếu bạn đang tìm kiếm giải pháp cho cây khóm, có thể cần tham khảo thêm các sản phẩm khác hoặc tư vấn từ chuyên gia nông nghiệp để có lựa chọn phù hợp. 
-Bạn có thể quan tâm đến các câu hỏi liên quan như:
-- Sản phẩm Atomin 15WP có thành phần và công dụng chính là gì?
-- Atomin 15WP được sử dụng cho những loại cây trồng nào và có tác dụng gì cụ thể?
-- Atomin 15WP là sản phẩm thuốc bảo vệ thực vật có đặc điểm gì và công dụng ra sao?</t>
   </si>
   <si>
     <t>2025-12-17 18:21:59,RAG,Công thức phối trộn đặc trị rầy nâu trên lúa?</t>
@@ -946,11 +911,6 @@
     <t>2025-12-17 18:27:24,RAG,"Trên lúa, sản phẩm nào hiệu quả để phòng rầy nâu kết hợp sâu cuốn lá, liều lượng và thời điểm phun ra sao?"</t>
   </si>
   <si>
-    <t>Nội dung phù hợp nhất trong tài liệu:
-- Mục liên quan: Kenbast 15SL nên được sử dụng như thế nào để đạt hiệu quả tốt nhất?
-Kenbast 15SL cần được phun ướt đẫm từ gốc đến ngọn của cây cỏ cần diệt để thuốc thấm sâu và phát huy tác dụng nội hấp. Sau khi phun, lá cỏ sẽ bắt đầu vàng sau khoảng 3 ngày và cỏ sẽ chết hoàn toàn sau 6-7 ngày. Nên lưu ý không phun thuốc lên cây trồng vì đây là thuốc trừ cỏ không chọn lọc.</t>
-  </si>
-  <si>
     <t>2025-12-17 18:27:28,RAG,"Sản phẩm nào giúp xử lý bệnh thán thư trên sầu riêng, liều lượng?"</t>
   </si>
   <si>
@@ -984,18 +944,7 @@
     <t>2025-12-17 18:44:41,RAG,Trị cỏ cây khoai mì dùng sản phẩm nào?</t>
   </si>
   <si>
-    <t>Để trị cỏ trong cây khoai mì, bạn có thể sử dụng sản phẩm Kenbast 15SL. Đây là một loại thuốc trừ cỏ không chọn lọc, chứa hoạt chất Glufosinate amonium với nồng độ 150g/l. Kenbast 15SL có khả năng diệt trừ hiệu quả các loại cỏ dại lá rộng và lá hẹp, bao gồm cả những loại cỏ khó trị và đã kháng Glyphosate như cỏ mần trầu và cỏ tranh.
-Đặc điểm nổi bật của Kenbast 15SL là cơ chế nội hấp và cháy chậm, giúp thuốc thấm sâu vào cây cỏ và phát huy tác dụng mạnh mẽ. Khi sử dụng, cần phun ướt đẫm từ gốc đến ngọn của cây cỏ cần diệt. Sau khi phun, lá cỏ sẽ bắt đầu vàng sau khoảng 3 ngày và cỏ sẽ chết hoàn toàn sau 6-7 ngày.
-Lưu ý rằng Kenbast 15SL là thuốc trừ cỏ không chọn lọc, do đó không nên phun trực tiếp lên cây trồng như khoai mì vì có thể gây hại. Sản phẩm này thích hợp để sử dụng trên đất trống hoặc trước khi gieo trồng để làm sạch cỏ.</t>
-  </si>
-  <si>
     <t>2025-12-17 18:45:13,RAG,Trị cỏ trên cây rau muống sử dụng sản phẩm nào?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Để trị cỏ trên cây rau muống, cần chọn sản phẩm phù hợp với cây trồng và không gây hại cho rau muống. Trong ngữ cảnh hiện tại, Kenbast 15SL không phải là lựa chọn thích hợp vì đây là thuốc trừ cỏ không chọn lọc. Kenbast 15SL có khả năng diệt cỏ mạnh mẽ, bao gồm cả các loại cỏ đã kháng Glyphosate, nhưng nó cũng có thể gây hại cho cây trồng nếu phun trực tiếp lên chúng. Do đó, không nên sử dụng Kenbast 15SL trên cây rau muống hoặc bất kỳ cây trồng nào mà bạn muốn bảo vệ.
-Đặc điểm nổi bật của Kenbast 15SL là khả năng diệt cỏ không chọn lọc với cơ chế nội hấp và tác dụng cháy chậm. Thuốc này thích hợp để kiểm soát cỏ dại trong các vùng trống hoặc trước khi gieo trồng, nhưng không nên phun trực tiếp lên cây trồng vì có thể gây chết cây.
-Nếu bạn cần tìm sản phẩm để trị cỏ trên cây rau muống, hãy tìm kiếm các loại thuốc trừ cỏ chọn lọc, an toàn cho cây trồng cụ thể của bạn. Luôn đọc kỹ hướng dẫn sử dụng và tuân thủ các khuyến cáo của nhà sản xuất để đảm bảo an toàn cho cây trồng và môi trường.
-</t>
   </si>
   <si>
     <t>2025-12-17 18:45:28,RAG,Sản phẩm nào trị sâu kháng thuốc?</t>
@@ -1017,10 +966,6 @@
   </si>
   <si>
     <t>2025-12-17 18:51:11,RAG,Sản phẩm đặc trị sâu đục thân trên bắp?</t>
-  </si>
-  <si>
-    <t>Trong ngữ cảnh hiện tại, không có thông tin cụ thể về sản phẩm đặc trị sâu đục thân trên bắp. Tuy nhiên, có một số sản phẩm và hoạt chất được đề cập trong ngữ cảnh có thể có tác dụng tương tự trên các loại cây trồng khác, như sầu riêng, có thể được xem xét áp dụng cho bắp nếu phù hợp.
-Ví dụ, các sản phẩm như Dinotop, Binhfos, và Forsan được sử dụng trong các công thức trị sâu đục thân và sâu đục trái trên sầu riêng. Các sản phẩm này thường có cơ chế hoạt động xông hơi và lưu dẫn, giúp tiêu diệt sâu non bên trong thân cây.</t>
   </si>
   <si>
     <t>Nội dung phù hợp nhất trong tài liệu:
@@ -1080,6 +1025,185 @@
 - Quy trình xử lý nấm bệnh và rong rêu tồn dư trên cây sầu riêng sau thu hoạch như thế nào?
 - Công thức trị bệnh nứt thân, xì mủ trên sầu riêng gồm những bước nào?</t>
   </si>
+  <si>
+    <t>Thuốc cỏ Modusa có dùng trừ cỏ bồn bồn trên Cà rốt được không?</t>
+  </si>
+  <si>
+    <t>Thuốc cỏ Modusa có dùng để trừ cỏ bồn bồn trên cà rốt được không?</t>
+  </si>
+  <si>
+    <t>Cách bảo quản sản phẩm cỏ Misung, Azin Rio  để không bị lắng cặn</t>
+  </si>
+  <si>
+    <t>Bảng phân loại ưu điểm các loại cỏ tiền, hậu nảy mầm</t>
+  </si>
+  <si>
+    <t>bảng phân loại ưu điểm các loại cỏ tiền và hậu nảy mầm có thể được tổng hợp như sau:
+1. **Cỏ hòa bản (Grass):**
+   - **Ưu điểm:** Sinh trưởng mạnh, cạnh tranh dinh dưỡng cao với cây trồng. Gồm cả cỏ hằng niên và đa niên, với cỏ đa niên có thân bò, rễ ngầm, củ hoặc thân ngầm rất khó trừ.
+2. **Cỏ lá rộng:**
+   - **Ưu điểm:** Sinh trưởng nhanh, cạnh tranh dinh dưỡng mạnh với cây trồng ngắn ngày. Phổ biến trong nhiều loại đất và môi trường trồng trọt.
+3. **Cỏ lác (cỏ năng – Sedges):**
+   - **Ưu điểm:** Sinh trưởng mạnh trong điều kiện đất ẩm và ruộng lúa. Gồm cả cỏ hằng niên và đa niên, với nhiều loài có thân ngầm hoặc củ phát triển mạnh, gây khó khăn trong phòng trừ.
+4. **Cỏ đa niên khó trừ:**
+   - **Ưu điểm:** Khả năng sinh trưởng mạnh với hệ rễ ngầm lan rộng, rất khó trừ và kháng Glyphosate.</t>
+  </si>
+  <si>
+    <t>Các sản phẩm dùng được cho vùng lúa tôm</t>
+  </si>
+  <si>
+    <t>Quizalofop-P-Ethyl là hoạt chất chính trong nhiều loại thuốc trừ cỏ, như Quizalo 50EC, Quizamaxx 15.8EC, Maruka 5EC, và nhiều sản phẩm khác được liệt kê trong ngữ cảnh. Đây là một loại thuốc trừ cỏ chọn lọc, thường được sử dụng để kiểm soát cỏ dại trong các loại cây trồng như đậu tương, sắn, lạc, và vừng. Hoạt chất này hoạt động bằng cách ức chế enzyme acetyl-CoA carboxylase (ACCase), một enzyme cần thiết cho sự tổng hợp axit béo trong cỏ dại, dẫn đến sự chết của cỏ.
+Tuy nhiên, không có thông tin cụ thể trong ngữ cảnh về việc sử dụng Quizalofop-P-Ethyl trên rau muống. Rau muống là một loại rau ăn lá, và việc sử dụng thuốc trừ cỏ trên rau ăn lá cần được cân nhắc kỹ lưỡng do nguy cơ tồn dư hóa chất có thể ảnh hưởng đến sức khỏe con người. Thông thường, các loại thuốc trừ cỏ như Quizalofop-P-Ethyl không được khuyến cáo sử dụng trên rau ăn lá trừ khi có chỉ dẫn cụ thể từ nhà sản xuất hoặc cơ quan quản lý nông nghiệp.
+Nếu bạn đang cân nhắc sử dụng Quizalofop-P-Ethyl hoặc bất kỳ loại thuốc trừ cỏ nào khác trên rau muống, nên tham khảo ý kiến của chuyên gia nông nghiệp hoặc kiểm tra hướng dẫn sử dụng từ nhà sản xuất để đảm bảo an toàn và hiệu quả.</t>
+  </si>
+  <si>
+    <t>Nội dung phù hợp nhất trong tài liệu:
+- Mục liên quan: Tên thương phẩm Daconil 75WP, 500SC
+Ngành: I. THUỐC SỬ DỤNG TRONG NÔNG NGHIỆP: Nhóm: 2. Thuốc trừ bệnh: Hoạt chất: Chlorothalonil (min 98%) Tên thương phẩm: Daconil 75WP, 500SC Đối tượng/cây trồng: 75WP: phấn trắng/ hoa hồng, dưa chuột; đốm lá/ hành, chè; bệnh đổ ngã cây con/ bắp cải, thuốc lá; đạo ôn, khô vằn/ lúa; thán thư/ vải, ớt, xoài, chanh leo, thanh long; sẹo, Melanos/ cam; mốc sương/ khoai tây; giả sương mai/dưa hấu; phấn trắng, mốc sương/ cà chua; sương mai/khoai tây500SC: đốm lá/lạc; thán thư/xoài, chè, dưa hấu, nhãn, chanh leo; mốc sương/cà chua; giả sương mai/ dưa chuột; đạo ôn, khô vằn, lem lép hạt/ lúa; phấn trắng/ nho, vải; sẹo, Melanos/cam; mốc sương/ khoai tây; sương mai/ súp lơ, mướp; sương mai, thán thư, rỉ sắt/đậu côve; đốm lá/ cà tím; đốm mắt cua, thối cổ rễ/ mồng tơi; đốm mắt cua, phấn trắng/ ớt; lở cổ rễ/ su hào; sương mai, lở cổ rễ, mốc xám/ rau cải; rỉ sắt, sương mai, thán thư/đậu đũa; rỉ trắng/rau muống Đơn vị đăng ký: Công ty CP Việt Thắng Group Rank: 2535 TT: 188 GROUP: NUM: 38</t>
+  </si>
+  <si>
+    <t>Trên cây bắp, để đặc trị sâu keo và sâu đục thân, có thể sử dụng công thức phối trộn từ các hoạt chất đã được đăng ký trong các sản phẩm thương mại. Trong NGỮ CẢNH, có hai sản phẩm có thể phù hợp:
+1. **Sulfaron250EC**: Sản phẩm này chứa hoạt chất Carbosulfan 200 g/l và Chlorfluazuron 50g/l. Carbosulfan là một loại thuốc trừ sâu phổ rộng, có tác dụng tiếp xúc và vị độc, trong khi Chlorfluazuron là một chất điều hòa sinh trưởng côn trùng, ngăn chặn sự lột xác của sâu non.
+2. **Luckyler 25EC**: Sản phẩm này chứa hoạt chất Abamectin 20g/l và Matrine 5g/l. Abamectin là một chất có tác dụng tiếp xúc và vị độc, thường được sử dụng để kiểm soát nhiều loại sâu bệnh, trong khi Matrine là một alkaloid tự nhiên có tác dụng trừ sâu.
+Để đạt hiệu quả cao nhất, nên phun thuốc vào giai đoạn cây bắp có từ 3 đến 5 lá, khi sâu keo và sâu đục thân bắt đầu xuất hiện và gây hại. Điều này giúp đảm bảo thuốc có thể tiếp xúc trực tiếp với sâu non và ngăn chặn sự phát triển của chúng.</t>
+  </si>
+  <si>
+    <t>Trong ngữ cảnh hiện tại, không có sản phẩm nào được đề cập cụ thể để sử dụng trước khi sạ lúa. Tuy nhiên, có một số sản phẩm và quy trình được nhắc đến liên quan đến việc chuẩn bị và xử lý ruộng lúa sau khi sạ, như Dktazole 480SL (Vamco) và Mi Stop 350SC. Dưới đây là một số thông tin liên quan đến việc chuẩn bị và xử lý ruộng lúa:
+1. **Dktazole 480SL (Vamco)**:
+   - **Thời điểm sử dụng**: Phun sau khi sạ từ 8-30 ngày, đặc biệt khi cây lúa từ 4-5 lá trở lên (khoảng 12-15 ngày sau sạ).
+   - **Chuẩn bị ruộng**: Trước khi phun, cần cày bừa, trục sạch cỏ vụ trước và san phẳng mặt ruộng, đảm bảo không có nước đọng vũng.
+   - **Lưu ý**: Không phun khi ruộng còn đọng nước hoặc cây trồng chưa đủ giai đoạn phát triển quy định.
+2. **Mi Stop 350SC**:
+   - **Thời điểm sử dụng**: Phun khi lúa chuẩn bị trổ và khi lúa trổ đều.
+   - **Mục đích**: Phòng trừ bệnh lem lép hạt và đạo ôn.
+3. **Xử lý đất ruộng trước khi sử dụng trong nhà lưới**:
+   - **Phương pháp**: Xông hơi hoặc xử lý nhiệt (khử trùng bằng hỗn hợp hơi nước/không khí ở 60°C trong 30 phút).
+   - **Mục đích**: Diệt trừ tác nhân gây bệnh thực vật để tránh lây bệnh cho cây trồng.
+Để đạt hiệu quả tối ưu trong việc chuẩn bị và xử lý ruộng lúa, người trồng cần tuân thủ các hướng dẫn cụ thể về thời điểm và cách thức sử dụng các sản phẩm bảo vệ thực vật. Ngoài ra, việc xử lý đất trước khi sử dụng trong nhà lưới cũng rất quan trọng để đảm bảo môi trường trồng trọt sạch bệnh.</t>
+  </si>
+  <si>
+    <t>Forsan 60EC là thuốc bảo vệ thực vật chứa hoạt chất Phenthoate với nồng độ 600g/lít. Sản phẩm này có tác dụng diệt sâu tận gốc và phòng trừ nhiều loại sâu bệnh trên các cây trồng như lúa, khoai lang, cà phê, mãng cầu, sầu riêng, và bắp. Forsan 60EC thuộc nhóm xông hơi và tiếp xúc mạnh, có khả năng xua đuổi chuột, nhưng cũng có mùi rất hôi và nặng.
+Mặc dù NGỮ CẢNH không cung cấp thông tin cụ thể về liều lượng và cách sử dụng, có một số lưu ý quan trọng khi sử dụng Forsan 60EC:
+- Đảm bảo thông thoáng khi phun thuốc, tránh phun trong không gian kín để hạn chế ảnh hưởng đến sức khỏe.
+- Cân nhắc khi sử dụng gần khu vực nuôi trồng hoặc sinh sống của động vật khác do thuốc có khả năng xua đuổi chuột.
+- Không phun thuốc lên cây trồng ngoài đối tượng được khuyến cáo để tránh gây hại.
+Forsan 60EC được đóng gói dưới các quy cách 100ml, 240ml, 400ml, 450ml và phân phối bởi các nhà phân phối như BMC, Phúc Thịnh và Delta.
+Bạn có thể quan tâm đến các câu hỏi liên quan như:
+- Forsan 60EC có những lưu ý quan trọng nào khi sử dụng?
+- Forsan 60EC dùng để phòng trừ sâu bệnh trên những cây trồng nào và sâu bệnh cụ thể là gì?</t>
+  </si>
+  <si>
+    <t>Trong giai đoạn tiền nảy mầm của cây lúa, có một số sản phẩm được sử dụng để kiểm soát cỏ dại, trong đó nổi bật là Riceup 300EC và Many 800WP.
+1. **Riceup 300EC**:
+   - **Đặc tính và cơ chế**: Riceup 300EC là thuốc trừ cỏ được sử dụng để kiểm soát các loại cỏ như cỏ đuôi phụng, cỏ lồng vực, cỏ chỉ, cỏ cháo, và cỏ cú trên ruộng lúa. Sản phẩm này đặc biệt hiệu quả trong giai đoạn tiền nảy mầm từ 1-4 ngày sau khi sạ.
+   - **Phạm vi tác động**: Riceup 300EC hoạt động tốt nhất khi lúa đã ủ nảy mầm và có đủ rễ. Trước khi phun, ruộng cần được chuẩn bị kỹ lưỡng, bao gồm cày bừa, trục sạch cỏ vụ trước, và san phẳng mặt ruộng.
+   - **Lưu ý khi sử dụng**: Phun thuốc bằng béc phun sương để đảm bảo phủ đều mặt ruộng. Sau khi phun 2-3 ngày, cần cho nước vào ruộng, tránh để nước ngập ngọn mạ và duy trì độ ẩm từ 5-10 ngày. Không để đất ruộng bị khô hay nứt nẻ.
+2. **Many 800WP**:
+   - **Đặc tính và cơ chế**: Many 800WP có thể được sử dụng trước khi cỏ mọc (tiền nảy mầm) hoặc khi cỏ đã mọc nhưng còn nhỏ (hậu nảy mầm sớm). Trên ngô (bắp), sản phẩm này được phun ngay sau khi tỉa hạt, khi cỏ chưa mọc hoặc mới mọc 1-2 lá.
+   - **Phạm vi tác động**: Sản phẩm này thích hợp cho việc kiểm soát cỏ dại trong giai đoạn đầu của sự phát triển cây trồng, giúp ngăn chặn sự cạnh tranh từ cỏ dại.
+Cả hai sản phẩm đều yêu cầu tuân thủ hướng dẫn sử dụng cụ thể trên bao bì để đạt hiệu quả tối ưu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong ngữ cảnh hiện tại, không có thông tin cụ thể về sản phẩm nào được sử dụng để kích thích ra hoa cho cây khóm (dứa). Tuy nhiên, nếu bạn quan tâm đến sản phẩm Atomin 15WP, đây là một sản phẩm chứa hoạt chất Paclobutrazol 15% w/w, được sử dụng chủ yếu để điều hòa sinh trưởng cây trồng. Atomin 15WP có công dụng kích thích ra hoa trái vụ cho các cây ăn trái như xoài và sầu riêng, hạn chế sượng trái, khô bông và rụng trái non, cũng như giúp cây lúa và bắp chống đổ ngã và phục hồi nhanh chóng.
+Nếu bạn đang tìm kiếm giải pháp cho cây khóm, có thể cần tham khảo thêm các sản phẩm khác hoặc tư vấn từ chuyên gia nông nghiệp để có lựa chọn phù hợp. </t>
+  </si>
+  <si>
+    <t>### Tổng quan về rầy nâu và sâu cuốn lá trên cây lúa
+Rầy nâu và sâu cuốn lá là hai loại sâu bệnh phổ biến gây hại trên cây lúa. Rầy nâu thường gây hại bằng cách hút nhựa cây, làm cây lúa suy yếu và có thể truyền bệnh virus. Sâu cuốn lá gây hại bằng cách cuốn lá lúa lại và ăn phần lá xanh, làm giảm khả năng quang hợp của cây.
+### Nguyên nhân &amp; điều kiện phát sinh
+- **Rầy nâu**: Phát triển mạnh trong điều kiện thời tiết nóng ẩm, đặc biệt là trong các vụ lúa hè thu.
+- **Sâu cuốn lá**: Thường xuất hiện nhiều trong mùa mưa, khi độ ẩm cao và nhiệt độ ấm áp.
+### Triệu chứng
+- **Rầy nâu**: Cây lúa bị rầy nâu tấn công thường có lá vàng úa, cây còi cọc và có thể chết nếu bị nhiễm nặng.
+- **Sâu cuốn lá**: Lá lúa bị cuốn lại thành ống, bên trong có sâu non ăn phần lá xanh, làm lá bị khô và chết.
+### Hậu quả
+- Giảm năng suất lúa do cây bị suy yếu và giảm khả năng quang hợp.
+- Tăng nguy cơ lây lan các bệnh virus do rầy nâu truyền.
+### Hướng xử lý &amp; phòng ngừa
+Để phòng trừ hiệu quả cả rầy nâu và sâu cuốn lá, có thể sử dụng các sản phẩm sau:
+1. **Chessin 600WP**: Hiệu quả trong việc phòng trừ rầy nâu. Tuy nhiên, không có thông tin về hiệu quả đối với sâu cuốn lá trong ngữ cảnh này.
+2. **FullKill 50EC**: Có khả năng trừ cả rầy nâu và sâu cuốn lá, là lựa chọn tốt để xử lý đồng thời hai loại sâu bệnh này.
+3. **Cymkill 25EC**: Cũng có hiệu quả trong việc phòng trừ cả rầy nâu và sâu cuốn lá.
+#### Liều lượng và thời điểm phun
+- **FullKill 50EC**: Thường được khuyến cáo phun khi mật độ sâu bệnh bắt đầu tăng cao. Tuy nhiên, liều lượng cụ thể cần tham khảo hướng dẫn của nhà sản xuất hoặc chuyên gia nông nghiệp địa phương.
+- **Cymkill 25EC**: Tương tự, cần tham khảo hướng dẫn chi tiết từ nhà sản xuất để xác định liều lượng và thời điểm phun phù hợp.
+### Gợi ý câu hỏi liên quan
+- FullKill 50EC có thể trừ được những loại sâu nào trên cây lúa?
+- Cymkill 25EC dùng để phòng trừ sâu bệnh trên cây lúa có những loại sâu nào?
+- Phonix Dragon 20EC có thể dùng để trừ sâu cuốn lá trên lúa không?</t>
+  </si>
+  <si>
+    <t>Để trị cỏ trên cây khoai mì, bạn có thể sử dụng sản phẩm Bpsaco 500EC hoặc Gorop 500EC.
+1. **Bpsaco 500EC**:
+   - Sản phẩm này được sử dụng để trừ cỏ tiền nảy mầm trên cây khoai mì. Ngoài ra, nó còn phù hợp cho các cây trồng khác như đậu phộng (lạc), bắp (ngô), hành, tỏi và các loại rau màu khác.
+   - Bpsaco 500EC có khả năng kiểm soát hiệu quả các loại cỏ dại trước khi chúng nảy mầm, giúp bảo vệ cây trồng khỏi sự cạnh tranh của cỏ dại ngay từ giai đoạn đầu.
+2. **Gorop 500EC**:
+   - Đây cũng là một sản phẩm dùng để trừ cỏ tiền nảy mầm, đặc trị các loại cỏ lá rộng và lá hẹp trên cây khoai mì.
+   - Gorop 500EC nên được phun trong giai đoạn từ 2 ngày trước khi trồng đến 3 ngày sau khi trồng để đạt hiệu quả cao nhất trong việc kiểm soát cỏ dại.
+   - Sản phẩm này cũng được sử dụng trên các cây trồng khác như đậu phộng (lạc), bắp (ngô), hành, tỏi và các rau màu khác.
+Cả hai sản phẩm đều có tác dụng tốt trong việc kiểm soát cỏ dại trên cây khoai mì, giúp cây phát triển khỏe mạnh mà không bị cạnh tranh bởi cỏ dại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để trị cỏ trên cây rau muống, sản phẩm Bpsaco 500EC (Trùm cỏ mầu Gold) có thể là một lựa chọn phù hợp. Bpsaco 500EC chứa hoạt chất Acetochlor với nồng độ 500g/l, được thiết kế để trừ cỏ tiền nảy mầm. Sản phẩm này đặc trị các loại cỏ lá rộng và lá hẹp, và có thể sử dụng trên nhiều loại cây trồng như khoai mì, đậu phộng (lạc), bắp (ngô), hành, tỏi và các rau màu khác. Để đạt hiệu quả cao nhất, thuốc nên được phun trong giai đoạn từ 2 ngày trước khi trồng đến 3 ngày sau khi trồng.
+Bpsaco 500EC giúp bảo vệ cây trồng trong giai đoạn đầu phát triển bằng cách kiểm soát cỏ dại hiệu quả. Tuy nhiên, cần lưu ý rằng thông tin cụ thể về việc sử dụng sản phẩm này trên cây rau muống không được đề cập trực tiếp trong ngữ cảnh, nên cần thận trọng và có thể tham khảo thêm ý kiến chuyên gia trước khi áp dụng.
+</t>
+  </si>
+  <si>
+    <t>Trong ngữ cảnh hiện tại, sản phẩm Binhfos 50EC có thể được sử dụng để kiểm soát sâu đục thân trên cây bắp. Binhfos 50EC là một loại thuốc trừ sâu phổ rộng, được sử dụng trên nhiều loại cây trồng khác nhau. Đối với cây bắp, sản phẩm này có khả năng kiểm soát các loại sâu bệnh như bọ xít muỗi, sâu đục cành và sâu đục thân.
+Binhfos 50EC hoạt động bằng cách tác động lên hệ thần kinh của sâu hại, gây ra sự rối loạn và cuối cùng là tiêu diệt chúng. Sản phẩm này có thể được áp dụng qua phương pháp phun trực tiếp lên cây trồng, giúp bảo vệ cây bắp khỏi sự tấn công của sâu đục thân, từ đó nâng cao năng suất và chất lượng của cây trồng.
+Nếu bạn quan tâm đến các sản phẩm khác hoặc cách xử lý sâu đục thân trên các loại cây khác, bạn có thể tham khảo thêm về cách xử lý sâu đục thân, sâu đục quả trên cây ăn trái hoặc tìm hiểu về các loại sâu bệnh mà Binhfos 50EC có thể trừ trên các cây trồng khác.</t>
+  </si>
+  <si>
+    <t>HƯƠNG BMC ĐĂK LĂK</t>
+  </si>
+  <si>
+    <t>Công ty có thuốc đặc trị mọt đục cành không?</t>
+  </si>
+  <si>
+    <t>Thuốc cỏ lấy số lượng ít có được chiết khấu không ?</t>
+  </si>
+  <si>
+    <t>Bên e có thuốc đặc trị rệp sáp 3 hoạt chất không ?</t>
+  </si>
+  <si>
+    <t>Thuốc nấm bệnh bên e có pha chung được với các thuốc của công ty khác không ?</t>
+  </si>
+  <si>
+    <t>Thuốc cỏ glu bên e có thể phối chung diquat được không?</t>
+  </si>
+  <si>
+    <t>Modusa 960EC và Modusa 960EC Gold là các loại thuốc trừ cỏ chứa hoạt chất S-Metolachlor với nồng độ 960g/l. Cả hai sản phẩm này đều được thiết kế để diệt mầm và đặc trị các loại cỏ lá rộng và lá hẹp trên các cây trồng như khoai mì (sắn), đậu phộng (lạc), mía, bắp (ngô), và đậu tương (đậu nành). Thuốc được sử dụng bằng cách phun trên đất ẩm trước hoặc ngay sau khi gieo trồng, khi cỏ chưa mọc hoặc còn nhỏ dưới một lá rưỡi. Đặc biệt, với cây ngô, nên phun trước khi cây giao 3-4 ngày để đạt hiệu quả tốt nhất.
+Tuy nhiên, trong ngữ cảnh được cung cấp, không có thông tin cụ thể về việc sử dụng Modusa 960EC hoặc Modusa 960EC Gold để trừ cỏ bồn bồn trên cây cà rốt. Để xác định khả năng và hiệu quả của thuốc trên loại cỏ và cây trồng cụ thể này, bạn nên tham khảo thêm từ nhà sản xuất hoặc các chuyên gia nông nghiệp có kinh nghiệm với sản phẩm này.</t>
+  </si>
+  <si>
+    <t>Để bảo quản sản phẩm cỏ Misung 15SC và Azin Rio 45SC nhằm tránh tình trạng lắng cặn, bạn cần chú ý các điểm sau:
+1. **Điều kiện lưu trữ**:
+   - Bảo quản sản phẩm ở nơi khô ráo, thoáng mát, tránh ánh nắng trực tiếp và nhiệt độ cao. Nhiệt độ lý tưởng thường là từ 15-30 độ C.
+   - Tránh để sản phẩm ở nơi có độ ẩm cao hoặc nơi có khả năng tiếp xúc với nước.
+2. **Bao bì và đóng gói**:
+   - Giữ nguyên bao bì gốc của sản phẩm cho đến khi sử dụng. Bao bì gốc thường được thiết kế để bảo vệ sản phẩm khỏi các yếu tố môi trường và giúp duy trì chất lượng.
+   - Đảm bảo nắp chai hoặc bao bì được đậy kín sau mỗi lần sử dụng để ngăn không khí và độ ẩm xâm nhập.
+3. **Tránh lắng cặn**:
+   - Trước khi sử dụng, lắc đều chai hoặc khuấy đều sản phẩm để đảm bảo các thành phần hoạt chất được phân tán đồng đều.
+   - Nếu sản phẩm đã bị lắng cặn, có thể cần lắc mạnh hoặc khuấy kỹ để hòa tan cặn trước khi pha chế và sử dụng.
+4. **Thời gian sử dụng**:
+   - Sử dụng sản phẩm trong thời hạn sử dụng được ghi trên bao bì để đảm bảo hiệu quả tối ưu. Sản phẩm hết hạn có thể không còn hiệu quả và dễ bị lắng cặn.</t>
+  </si>
+  <si>
+    <t>Để sử dụng trong vùng lúa nuôi tôm, cần lựa chọn các sản phẩm an toàn cho cả cây trồng và môi trường thủy sinh. Dưới đây là thông tin về các sản phẩm có thể được sử dụng cho vùng lúa:
+1. **Tomi 5EC**: 
+   - **Đặc tính và cơ chế**: Tomi 5EC là thuốc trừ sâu có tác dụng ngăn cản ấu trùng lột xác và tiêu diệt trứng sâu. 
+   - **Phạm vi tác động**: Sản phẩm này được sử dụng trên cây lúa để phòng trừ sâu cuốn lá. Ngoài ra, Tomi 5EC còn hiệu quả trên các cây trồng khác như cam, đậu tương, đậu xanh, thuốc lá, bắp cải và ngô.
+   - **Lưu ý**: Tài liệu không đề cập đến tính an toàn của Tomi 5EC đối với môi trường thủy sinh như tôm, do đó cần thận trọng khi sử dụng trong vùng lúa nuôi tôm.
+2. **Tosi 30WG**:
+   - **Đặc tính và cơ chế**: Tosi 30WG là thuốc trừ sâu chích hút, giúp kiểm soát hiệu quả các loại sâu gây hại như rầy nâu trên lúa.
+   - **Phạm vi tác động**: Ngoài lúa, sản phẩm này còn được sử dụng trên điều và cà phê để diệt bọ trĩ, rệp sáp, bọ phấn và bướm trắng.
+   - **Lưu ý**: Tài liệu không đề cập đến tính an toàn của Tosi 30WG đối với môi trường thủy sinh như tôm, do đó cần thận trọng khi sử dụng trong vùng lúa nuôi tôm.
+3. **Million 50WG**:
+   - **Đặc tính và cơ chế**: Million 50WG là sản phẩm trừ sâu có thể sử dụng trên nhiều loại cây trồng, bao gồm lúa.
+   - **Phạm vi tác động**: Ngoài lúa, sản phẩm này còn được sử dụng trên sắn, ngô, xoài, thanh long, thuốc lá, hoa cúc, hoa hồng, rau cải và các cây ăn trái khác để diệt các loại sâu như bọ phấn trắng, rệp muội, rệp sáp, bọ trĩ, nhện lông nhung, và bọ nhảy.
+   - **Lưu ý**: Tài liệu không đề cập đến tính an toàn của Million 50WG đối với môi trường thủy sinh như tôm, do đó cần thận trọng khi sử dụng trong vùng lúa nuôi tôm.</t>
+  </si>
 </sst>
 </file>
 
@@ -1094,18 +1218,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1131,10 +1249,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,581 +1798,609 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
         <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
         <v>78</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
         <v>84</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
         <v>90</v>
-      </c>
-      <c r="B81" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
         <v>96</v>
-      </c>
-      <c r="B86" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
         <v>106</v>
-      </c>
-      <c r="B95" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
         <v>112</v>
-      </c>
-      <c r="B100" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="s">
         <v>118</v>
-      </c>
-      <c r="B105" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
         <v>124</v>
-      </c>
-      <c r="B110" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" t="s">
         <v>130</v>
-      </c>
-      <c r="B115" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
         <v>136</v>
-      </c>
-      <c r="B120" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s">
         <v>142</v>
-      </c>
-      <c r="B130" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>166</v>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>264</v>
+      </c>
+      <c r="B154" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2267,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,42 +2425,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2326,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,218 +2484,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>215</v>
+      <c r="B17" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2708,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,42 +2719,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2620,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B8:B14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,42 +2778,101 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="208.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/questions-data-test.xlsx
+++ b/data/questions-data-test.xlsx
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/questions-data-test.xlsx
+++ b/data/questions-data-test.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST 20-12" sheetId="1" r:id="rId1"/>
     <sheet name="Hân" sheetId="2" r:id="rId2"/>
     <sheet name="BMC AN GIANG" sheetId="3" r:id="rId3"/>
     <sheet name="MY" sheetId="4" r:id="rId4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
   <si>
     <t>name</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>Hiện nay xịt ốc bằng sản phẩm oosaka với liều 100g bình 25 lít, ruộng đủ nước nhưng ốc chết kém, chỉ khoảng 30%. Nguyên nhân tại sao?</t>
-  </si>
-  <si>
-    <t>answer</t>
   </si>
   <si>
     <t>bên cty em có sp nào, hoạt nào mát trị bọ trĩ, bọ xít muỗi, sâu, rầy, rệp , trị kiến ko?</t>
@@ -1218,12 +1215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1238,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1253,6 +1256,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,108 +1537,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="183" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2226,30 +2225,30 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,30 +2376,30 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>263</v>
+      </c>
+      <c r="B154" t="s">
         <v>264</v>
-      </c>
-      <c r="B154" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2425,42 +2424,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2484,218 +2483,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2719,42 +2718,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2778,42 +2777,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2837,34 +2836,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2872,7 +2871,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/questions-data-test.xlsx
+++ b/data/questions-data-test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="269">
   <si>
     <t>name</t>
   </si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>Công thức trị sâu đục quả trên cây có múi</t>
-  </si>
-  <si>
-    <t>NHI</t>
-  </si>
-  <si>
-    <t>Gone super phun giai đoạn nào của cây lúa. có gây nóng không?</t>
-  </si>
-  <si>
-    <t>Sản phẩm hariwon 30sl có phun được trên cây trồng không hay chỉ đổ gốc?</t>
   </si>
   <si>
     <t>SANG</t>
@@ -1215,7 +1206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,6 +1216,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1257,6 +1260,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1537,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,32 +1594,32 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1639,32 +1644,32 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1689,37 +1694,37 @@
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1784,33 +1789,33 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -1821,99 +1826,99 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -1924,24 +1929,24 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>81</v>
       </c>
@@ -1952,24 +1957,24 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>87</v>
       </c>
@@ -1980,24 +1985,24 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>89</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>93</v>
       </c>
@@ -2008,44 +2013,44 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>95</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>103</v>
       </c>
@@ -2056,24 +2061,24 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>105</v>
-      </c>
-      <c r="B95" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>109</v>
       </c>
@@ -2084,24 +2089,24 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>111</v>
-      </c>
-      <c r="B100" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>115</v>
       </c>
@@ -2112,24 +2117,24 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>117</v>
-      </c>
-      <c r="B105" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>121</v>
       </c>
@@ -2140,24 +2145,24 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>127</v>
       </c>
@@ -2168,24 +2173,24 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>129</v>
-      </c>
-      <c r="B115" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>133</v>
       </c>
@@ -2196,210 +2201,197 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
         <v>135</v>
-      </c>
-      <c r="B120" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>168</v>
+      </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>171</v>
-      </c>
       <c r="B125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
       <c r="B128" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>141</v>
       </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>260</v>
+      </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>263</v>
-      </c>
-      <c r="B154" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2424,42 +2416,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2483,218 +2475,218 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2718,42 +2710,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2777,42 +2769,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2836,42 +2828,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/questions-data-test.xlsx
+++ b/data/questions-data-test.xlsx
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
